--- a/Hedge Performances.xlsx
+++ b/Hedge Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/ECO461-A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{061F6961-0C97-1C44-95D2-55AC4A75B1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9B9D5-B159-C344-8125-C1D70911DCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15900" xr2:uid="{39962C62-5C97-3F47-89C4-4DC77CC96442}"/>
   </bookViews>
@@ -72,10 +72,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +146,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,7 +469,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,23 +542,23 @@
       <c r="F2" s="3">
         <v>1.667</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="12">
         <f>19.95*42000*(B2-F2)</f>
         <v>74573.099999999977</v>
       </c>
       <c r="H2" s="1">
         <v>1.3704761904761906</v>
       </c>
-      <c r="I2" s="10">
-        <f>19.95*42000*(C2-H2)</f>
-        <v>80996.999999999825</v>
+      <c r="I2" s="12">
+        <f>19.4*42000*(C2-H2)</f>
+        <v>78763.999999999811</v>
       </c>
       <c r="J2" s="1">
         <v>1.9350000000000001</v>
       </c>
-      <c r="K2" s="10">
-        <f>19.95*42000*(D2-J2)</f>
-        <v>65356.199999999873</v>
+      <c r="K2" s="12">
+        <f>18.3*42000*(D2-J2)</f>
+        <v>59950.799999999879</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -577,23 +581,23 @@
       <c r="F3" s="3">
         <v>1.6020000000000001</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G7" si="1">19.95*42000*(B3-F3)</f>
         <v>104737.5</v>
       </c>
       <c r="H3" s="1">
         <v>1.3719047619047617</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I7" si="2">19.95*42000*(C3-H3)</f>
-        <v>64239.000000000182</v>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I7" si="2">19.4*42000*(C3-H3)</f>
+        <v>62468.000000000167</v>
       </c>
       <c r="J3" s="1">
         <v>1.915</v>
       </c>
-      <c r="K3" s="10">
-        <f>19.95*42000*(D3-J3)</f>
-        <v>40219.200000000033</v>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K7" si="3">18.3*42000*(D3-J3)</f>
+        <v>36892.800000000032</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -616,23 +620,23 @@
       <c r="F4" s="3">
         <v>1.645</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <f t="shared" si="1"/>
         <v>41057.09999999994</v>
       </c>
       <c r="H4" s="1">
         <v>1.4107142857142858</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <f t="shared" si="2"/>
-        <v>-19152.000000000044</v>
+        <v>-18624.00000000004</v>
       </c>
       <c r="J4" s="1">
         <v>1.9550000000000001</v>
       </c>
-      <c r="K4" s="10">
-        <f>19.95*42000*(D4-J4)</f>
-        <v>-80438.400000000067</v>
+      <c r="K4" s="12">
+        <f t="shared" si="3"/>
+        <v>-73785.600000000064</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -655,23 +659,23 @@
       <c r="F5" s="3">
         <v>1.6890000000000001</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <f t="shared" si="1"/>
         <v>-50274.000000000044</v>
       </c>
       <c r="H5" s="1">
         <v>1.4464285714285714</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="12">
         <f t="shared" si="2"/>
-        <v>-91770.000000000044</v>
+        <v>-89240.000000000029</v>
       </c>
       <c r="J5" s="1">
         <v>2.0219999999999998</v>
       </c>
-      <c r="K5" s="10">
-        <f>19.95*42000*(D5-J5)</f>
-        <v>-208637.09999999992</v>
+      <c r="K5" s="12">
+        <f t="shared" si="3"/>
+        <v>-191381.39999999991</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -694,23 +698,23 @@
       <c r="F6" s="3">
         <v>1.732</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>-156687.30000000005</v>
       </c>
       <c r="H6" s="1">
         <v>1.4578571428571427</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="12">
         <f t="shared" si="2"/>
-        <v>-170373.00000000003</v>
+        <v>-165676</v>
       </c>
       <c r="J6" s="1">
         <v>2.0390000000000001</v>
       </c>
-      <c r="K6" s="10">
-        <f>19.95*42000*(D6-J6)</f>
-        <v>-330132.60000000009</v>
+      <c r="K6" s="12">
+        <f t="shared" si="3"/>
+        <v>-302828.40000000008</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -733,23 +737,23 @@
       <c r="F7" s="3">
         <v>1.714</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>-160038.90000000005</v>
       </c>
       <c r="H7" s="1">
         <v>1.4669047619047619</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="12">
         <f t="shared" si="2"/>
-        <v>-224437.49999999994</v>
+        <v>-218249.99999999991</v>
       </c>
       <c r="J7" s="1">
         <v>2.0350000000000001</v>
       </c>
-      <c r="K7" s="10">
-        <f>19.95*42000*(D7-J7)</f>
-        <v>-369513.9</v>
+      <c r="K7" s="12">
+        <f t="shared" si="3"/>
+        <v>-338952.60000000003</v>
       </c>
     </row>
   </sheetData>
